--- a/programs/datnes sanemshana/results.xlsx
+++ b/programs/datnes sanemshana/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shyri\Desktop\RTU\bakalaura darbs\my\Bakalura-Darbs\programs\datnes sanemshana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C930ABB5-DBCA-43CF-8385-0B4F1ABD01F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9698287D-3768-432C-8EF1-A5FF68441C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEE30125-21CA-48FE-956F-7F2FCD77C990}"/>
+    <workbookView xWindow="2325" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{DEE30125-21CA-48FE-956F-7F2FCD77C990}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <dimension ref="C3:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" ref="F13:J13" si="0">(MAX(G$5:G$8) - G5)/(MAX(G$5:G$8)-MIN(G$5:G$8))</f>
+        <f t="shared" ref="G13:J13" si="0">(MAX(G$5:G$8) - G5)/(MAX(G$5:G$8)-MIN(G$5:G$8))</f>
         <v>0</v>
       </c>
       <c r="H13" s="10">
@@ -849,7 +849,7 @@
         <v>0.89805715576640688</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" ref="F14:F16" si="2">(F6 - MIN(F$5:F$8) )/(MAX(F$5:F$8)-MIN(F$5:F$8))</f>
+        <f t="shared" ref="F14:F15" si="2">(F6 - MIN(F$5:F$8) )/(MAX(F$5:F$8)-MIN(F$5:F$8))</f>
         <v>0</v>
       </c>
       <c r="G14" s="10">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" ref="I14:I16" si="3">(I6 - MIN(I$5:I$8))/(MAX(I$5:I$8)-MIN(I$5:I$8))</f>
+        <f t="shared" ref="I14:I15" si="3">(I6 - MIN(I$5:I$8))/(MAX(I$5:I$8)-MIN(I$5:I$8))</f>
         <v>0</v>
       </c>
       <c r="J14" s="10">
@@ -891,7 +891,7 @@
       </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="3"/>
@@ -903,7 +903,7 @@
       </c>
       <c r="K15" s="11" cm="1">
         <f t="array" ref="K15">SUM($E$11:$J$11*(1-E15:J15))</f>
-        <v>0.4500053672916603</v>
+        <v>0.41000536729166032</v>
       </c>
     </row>
     <row r="16" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
